--- a/biology/Zoologie/Cryptoforis_cairncross/Cryptoforis_cairncross.xlsx
+++ b/biology/Zoologie/Cryptoforis_cairncross/Cryptoforis_cairncross.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptoforis cairncross est une espèce d'araignées mygalomorphes de la famille des Idiopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptoforis cairncross est une espèce d'araignées mygalomorphes de la famille des Idiopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre vers Maleny et Montville, dans le Sud des monts Blackall dans la réserve Mary Cairncross et le parc national Kondalilla[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre vers Maleny et Montville, dans le Sud des monts Blackall dans la réserve Mary Cairncross et le parc national Kondalilla.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 26,04 mm et la femelle paratype 27,28 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 26,04 mm et la femelle paratype 27,28 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la réserve Mary Cairncross.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wilson, Raven, Schmidt, Hughes &amp; Rix, 2021 : « Systematics of the spiny trapdoor spider genus Cryptoforis (Mygalomorphae: Idiopidae: Euoplini): documenting an enigmatic lineage from the eastern Australian mesic zone. » The Journal of Arachnology, vol. 49, no 1, p. 28-90.</t>
         </is>
